--- a/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_3_rdtov16_adam.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_3_rdtov16_adam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\ogun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30C0D6-EEA7-49BD-BD88-42D103357AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20404339-0230-42F2-8D92-8532ECC3A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -324,12 +324,6 @@
     <t>ELISA - Final decision</t>
   </si>
   <si>
-    <t>ng_oncho_stop_202403_3_rdtov16_ogun</t>
-  </si>
-  <si>
-    <t>(2024 Mar) - 3. ELISA Form Ogun State</t>
-  </si>
-  <si>
     <t>OGUN</t>
   </si>
   <si>
@@ -436,6 +430,12 @@
   </si>
   <si>
     <t>IDOGO</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_202404_3_rdtov16_adam</t>
+  </si>
+  <si>
+    <t>(Adamawa State 2024 Apr) - 3. ELISA Form Ogun State</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD85"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1551,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1562,13 +1562,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1576,13 +1576,13 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1590,13 +1590,13 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1604,13 +1604,13 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1618,13 +1618,13 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1632,13 +1632,13 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1646,13 +1646,13 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1660,13 +1660,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1674,13 +1674,13 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1688,13 +1688,13 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1702,13 +1702,13 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1716,13 +1716,13 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1730,13 +1730,13 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1744,13 +1744,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1758,13 +1758,13 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1772,13 +1772,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1786,13 +1786,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1800,13 +1800,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1814,13 +1814,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1828,13 +1828,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1842,13 +1842,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1856,13 +1856,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1870,13 +1870,13 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1884,13 +1884,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1898,13 +1898,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1912,13 +1912,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1926,13 +1926,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1940,13 +1940,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1954,13 +1954,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1968,13 +1968,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1982,13 +1982,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1996,13 +1996,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2010,13 +2010,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2024,13 +2024,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2038,13 +2038,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2072,7 +2072,7 @@
         <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>203</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2100,7 +2100,7 @@
         <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>205</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2128,7 +2128,7 @@
         <v>206</v>
       </c>
       <c r="F68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2142,7 +2142,7 @@
         <v>207</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2156,7 +2156,7 @@
         <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2170,7 +2170,7 @@
         <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2184,7 +2184,7 @@
         <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2198,7 +2198,7 @@
         <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2212,7 +2212,7 @@
         <v>212</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>213</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2240,7 +2240,7 @@
         <v>214</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2268,7 +2268,7 @@
         <v>216</v>
       </c>
       <c r="F78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2282,7 +2282,7 @@
         <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2296,7 +2296,7 @@
         <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2310,7 +2310,7 @@
         <v>219</v>
       </c>
       <c r="F81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2324,7 +2324,7 @@
         <v>220</v>
       </c>
       <c r="F82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>

--- a/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_3_rdtov16_adam.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_3_rdtov16_adam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20404339-0230-42F2-8D92-8532ECC3A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D5B3B4-9FC4-4428-819E-A2477B8D353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -324,118 +324,130 @@
     <t>ELISA - Final decision</t>
   </si>
   <si>
-    <t>OGUN</t>
-  </si>
-  <si>
-    <t>ABEOKUTA NORTH</t>
-  </si>
-  <si>
-    <t>ADO ODO/OTA</t>
-  </si>
-  <si>
-    <t>ADO-ODO/OTA (BADAGRY)</t>
-  </si>
-  <si>
-    <t>EGBADO NORTH</t>
-  </si>
-  <si>
-    <t>IFO</t>
-  </si>
-  <si>
-    <t>IJEBU EAST</t>
-  </si>
-  <si>
-    <t>IJEBU NORTH</t>
-  </si>
-  <si>
-    <t>IJEBU-ODE</t>
-  </si>
-  <si>
-    <t>IMEKO AFON</t>
-  </si>
-  <si>
-    <t>OBAFEMI O</t>
-  </si>
-  <si>
-    <t>OBAFEMI OWODE</t>
-  </si>
-  <si>
-    <t>ODEDA</t>
-  </si>
-  <si>
-    <t>ODOGBOLU</t>
-  </si>
-  <si>
-    <t>SAGAMU</t>
-  </si>
-  <si>
-    <t>YEWA SOUTH</t>
-  </si>
-  <si>
-    <t>ATAPA IKOYI</t>
-  </si>
-  <si>
-    <t>IDIMU</t>
-  </si>
-  <si>
-    <t>SEJE</t>
-  </si>
-  <si>
-    <t>EGGUA</t>
-  </si>
-  <si>
-    <t>SAALA-ORILE</t>
-  </si>
-  <si>
-    <t>ASANI</t>
-  </si>
-  <si>
-    <t>OKE-MAKUN</t>
-  </si>
-  <si>
-    <t>AJEGUNLE AWA</t>
-  </si>
-  <si>
-    <t>DAMOLA</t>
-  </si>
-  <si>
-    <t>MOSINMI</t>
-  </si>
-  <si>
-    <t>IRAWO</t>
-  </si>
-  <si>
-    <t>ALLA SOKA</t>
-  </si>
-  <si>
-    <t>IDOFA</t>
-  </si>
-  <si>
-    <t>AROGUN</t>
-  </si>
-  <si>
-    <t>OLOJO</t>
-  </si>
-  <si>
-    <t>ABULE SET</t>
-  </si>
-  <si>
-    <t>JAGUNA</t>
-  </si>
-  <si>
-    <t>OKUN-OWO</t>
-  </si>
-  <si>
-    <t>ODELEMO</t>
-  </si>
-  <si>
-    <t>IDOGO</t>
-  </si>
-  <si>
-    <t>ng_oncho_stop_202404_3_rdtov16_adam</t>
-  </si>
-  <si>
-    <t>(Adamawa State 2024 Apr) - 3. ELISA Form Ogun State</t>
+    <t>(Adamawa State 2024 Apr) - 3. ELISA Form Ogun State V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_202404_3_rdtov16_adam_v2</t>
+  </si>
+  <si>
+    <t>ADAMAWA</t>
+  </si>
+  <si>
+    <t>DEMSA</t>
+  </si>
+  <si>
+    <t>FUFORE</t>
+  </si>
+  <si>
+    <t>GOMBI</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>LAMURDE</t>
+  </si>
+  <si>
+    <t>MADAGALI</t>
+  </si>
+  <si>
+    <t>MAIHA</t>
+  </si>
+  <si>
+    <t>MICHIKA</t>
+  </si>
+  <si>
+    <t>MUBI NORTH</t>
+  </si>
+  <si>
+    <t>MUBI SOUTH</t>
+  </si>
+  <si>
+    <t>SHELLENG</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>TOUNGO</t>
+  </si>
+  <si>
+    <t>YOLA NORTH</t>
+  </si>
+  <si>
+    <t>DILLI</t>
+  </si>
+  <si>
+    <t>KARLAHI</t>
+  </si>
+  <si>
+    <t>KOCHEL</t>
+  </si>
+  <si>
+    <t>GUYAKU</t>
+  </si>
+  <si>
+    <t>PUBA</t>
+  </si>
+  <si>
+    <t>ZHEDINYI</t>
+  </si>
+  <si>
+    <t>TISEL</t>
+  </si>
+  <si>
+    <t>BOLLERE</t>
+  </si>
+  <si>
+    <t>DAMAI</t>
+  </si>
+  <si>
+    <t>KWATAMA DAFFA</t>
+  </si>
+  <si>
+    <t>JAMTARI</t>
+  </si>
+  <si>
+    <t>SINA MALA</t>
+  </si>
+  <si>
+    <t>MUCHALLA</t>
+  </si>
+  <si>
+    <t>WURO HAMMAGU</t>
+  </si>
+  <si>
+    <t>DABEWO</t>
+  </si>
+  <si>
+    <t>BAAWO</t>
+  </si>
+  <si>
+    <t>BARANGA</t>
+  </si>
+  <si>
+    <t>GUMTI</t>
+  </si>
+  <si>
+    <t>KOGIN BABA1</t>
+  </si>
+  <si>
+    <t>KOGIN BABA2</t>
+  </si>
+  <si>
+    <t>MAYOBIRIJI</t>
+  </si>
+  <si>
+    <t>TIMBO</t>
+  </si>
+  <si>
+    <t>WURO JATAU</t>
+  </si>
+  <si>
+    <t>YOLA (DOUBELI)</t>
   </si>
 </sst>
 </file>
@@ -1278,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD85"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1551,10 +1563,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1562,13 +1574,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1576,13 +1588,13 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1590,13 +1602,13 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1604,13 +1616,13 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1618,13 +1630,13 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1632,13 +1644,13 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1646,13 +1658,13 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1660,13 +1672,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1674,13 +1686,13 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1688,13 +1700,13 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1702,13 +1714,13 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1716,13 +1728,13 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1730,13 +1742,13 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1744,13 +1756,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1758,13 +1770,13 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1772,13 +1784,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1786,13 +1798,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1800,13 +1812,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1814,10 +1826,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>104</v>
@@ -1828,13 +1840,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1842,13 +1854,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1856,30 +1868,30 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1904,10 +1916,10 @@
         <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1918,10 +1930,10 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1935,242 +1947,245 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
         <v>132</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>132</v>
       </c>
-      <c r="E58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
         <v>133</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>133</v>
       </c>
-      <c r="E59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
         <v>134</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>134</v>
-      </c>
-      <c r="E60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>135</v>
       </c>
       <c r="E61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63">
-        <v>201</v>
-      </c>
-      <c r="C63">
-        <v>201</v>
-      </c>
-      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5">
       <c r="A64" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64">
-        <v>202</v>
-      </c>
-      <c r="C64">
-        <v>202</v>
-      </c>
-      <c r="F64" t="s">
-        <v>117</v>
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65">
-        <v>203</v>
-      </c>
-      <c r="C65">
-        <v>203</v>
-      </c>
-      <c r="F65" t="s">
-        <v>118</v>
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66">
-        <v>204</v>
-      </c>
-      <c r="C66">
-        <v>204</v>
-      </c>
-      <c r="F66" t="s">
-        <v>119</v>
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67">
-        <v>205</v>
-      </c>
-      <c r="C67">
-        <v>205</v>
-      </c>
-      <c r="F67" t="s">
-        <v>120</v>
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68">
-        <v>206</v>
-      </c>
-      <c r="C68">
-        <v>206</v>
-      </c>
-      <c r="F68" t="s">
-        <v>121</v>
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69">
-        <v>207</v>
-      </c>
-      <c r="C69">
-        <v>207</v>
-      </c>
-      <c r="F69" t="s">
-        <v>122</v>
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70">
-        <v>208</v>
-      </c>
-      <c r="C70">
-        <v>208</v>
-      </c>
-      <c r="F70" t="s">
-        <v>123</v>
-      </c>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B71">
-        <v>209</v>
+        <v>401</v>
       </c>
       <c r="C71">
-        <v>209</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2178,13 +2193,13 @@
         <v>88</v>
       </c>
       <c r="B72">
-        <v>210</v>
+        <v>402</v>
       </c>
       <c r="C72">
-        <v>210</v>
+        <v>402</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2192,13 +2207,13 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>211</v>
+        <v>403</v>
       </c>
       <c r="C73">
-        <v>211</v>
+        <v>403</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2206,13 +2221,13 @@
         <v>88</v>
       </c>
       <c r="B74">
-        <v>212</v>
+        <v>404</v>
       </c>
       <c r="C74">
-        <v>212</v>
+        <v>404</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2220,13 +2235,13 @@
         <v>88</v>
       </c>
       <c r="B75">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="C75">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2234,13 +2249,13 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>214</v>
+        <v>406</v>
       </c>
       <c r="C76">
-        <v>214</v>
+        <v>406</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2248,13 +2263,13 @@
         <v>88</v>
       </c>
       <c r="B77">
-        <v>215</v>
+        <v>407</v>
       </c>
       <c r="C77">
-        <v>215</v>
+        <v>407</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2262,13 +2277,13 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>216</v>
+        <v>408</v>
       </c>
       <c r="C78">
-        <v>216</v>
+        <v>408</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2276,13 +2291,13 @@
         <v>88</v>
       </c>
       <c r="B79">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="C79">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2290,13 +2305,13 @@
         <v>88</v>
       </c>
       <c r="B80">
-        <v>218</v>
+        <v>410</v>
       </c>
       <c r="C80">
-        <v>218</v>
+        <v>410</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2304,13 +2319,13 @@
         <v>88</v>
       </c>
       <c r="B81">
-        <v>219</v>
+        <v>411</v>
       </c>
       <c r="C81">
-        <v>219</v>
+        <v>411</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2318,13 +2333,237 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>220</v>
+        <v>412</v>
       </c>
       <c r="C82">
-        <v>220</v>
+        <v>412</v>
       </c>
       <c r="F82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>413</v>
+      </c>
+      <c r="C83">
+        <v>413</v>
+      </c>
+      <c r="F83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>414</v>
+      </c>
+      <c r="C84">
+        <v>414</v>
+      </c>
+      <c r="F84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>415</v>
+      </c>
+      <c r="C85">
+        <v>415</v>
+      </c>
+      <c r="F85" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>416</v>
+      </c>
+      <c r="C86">
+        <v>416</v>
+      </c>
+      <c r="F86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>417</v>
+      </c>
+      <c r="C87">
+        <v>417</v>
+      </c>
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>418</v>
+      </c>
+      <c r="C88">
+        <v>418</v>
+      </c>
+      <c r="F88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>419</v>
+      </c>
+      <c r="C89">
+        <v>419</v>
+      </c>
+      <c r="F89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>420</v>
+      </c>
+      <c r="C90">
+        <v>420</v>
+      </c>
+      <c r="F90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>421</v>
+      </c>
+      <c r="C91">
+        <v>421</v>
+      </c>
+      <c r="F91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>422</v>
+      </c>
+      <c r="C92">
+        <v>422</v>
+      </c>
+      <c r="F92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93">
+        <v>423</v>
+      </c>
+      <c r="C93">
+        <v>423</v>
+      </c>
+      <c r="F93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <v>424</v>
+      </c>
+      <c r="C94">
+        <v>424</v>
+      </c>
+      <c r="F94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>425</v>
+      </c>
+      <c r="C95">
+        <v>425</v>
+      </c>
+      <c r="F95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>426</v>
+      </c>
+      <c r="C96">
+        <v>426</v>
+      </c>
+      <c r="F96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97">
+        <v>427</v>
+      </c>
+      <c r="C97">
+        <v>427</v>
+      </c>
+      <c r="F97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98">
+        <v>428</v>
+      </c>
+      <c r="C98">
+        <v>428</v>
+      </c>
+      <c r="F98" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2579,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2362,10 +2601,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
